--- a/テスト項目/スペックシート.xlsx
+++ b/テスト項目/スペックシート.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>実装環境</t>
     <rPh sb="0" eb="2">
@@ -48,19 +48,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Raspberry Pi 3 Model B </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>python</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シングルボードコンピュータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Webカメラ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -71,27 +59,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>シングルボードコンピュータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi 3 Model B </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジクール ウェブカメラ C615 ブラック フルHD 1080P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HY-SRF05超音波距離センサモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ロードセル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>LED</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HY-SRF05超音波距離センサモジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロードセル、重量センサー、接続ケーブル付き高精度ミニロードセルスケール重量センサー(3KG)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロジクール ウェブカメラ C615 ブラック フルHD 1080P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SODIAL(R) 100 5mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードセル　シングルポイント(ビーム型)3kg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +432,7 @@
   <dimension ref="B3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -445,42 +457,54 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
